--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -52,12 +52,17 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b0b0b0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -147,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +187,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
@@ -555,6 +563,16 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -564,6 +582,16 @@
           <t>MAT10</t>
         </is>
       </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>BINDO5</t>
+        </is>
+      </c>
+      <c r="E2" s="12" t="inlineStr">
+        <is>
+          <t>BINDO6</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="9" t="n">
@@ -575,6 +603,8 @@
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr"/>
+      <c r="D3" s="14" t="inlineStr"/>
+      <c r="E3" s="9" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -586,6 +616,8 @@
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr"/>
+      <c r="D4" s="14" t="inlineStr"/>
+      <c r="E4" s="9" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -597,6 +629,8 @@
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr"/>
+      <c r="D5" s="14" t="inlineStr"/>
+      <c r="E5" s="9" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -608,6 +642,8 @@
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr"/>
+      <c r="D6" s="14" t="inlineStr"/>
+      <c r="E6" s="9" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -619,6 +655,8 @@
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr"/>
+      <c r="D7" s="14" t="inlineStr"/>
+      <c r="E7" s="9" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -630,6 +668,8 @@
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr"/>
+      <c r="D8" s="14" t="inlineStr"/>
+      <c r="E8" s="9" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="9" t="n">
@@ -641,6 +681,8 @@
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr"/>
+      <c r="D9" s="14" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -652,6 +694,8 @@
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr"/>
+      <c r="D10" s="14" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="9" t="n">
@@ -663,6 +707,8 @@
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr"/>
+      <c r="D11" s="14" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -674,6 +720,8 @@
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="14" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="n">
@@ -685,6 +733,8 @@
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="14" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -696,6 +746,8 @@
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr"/>
+      <c r="D14" s="14" t="inlineStr"/>
+      <c r="E14" s="9" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -707,6 +759,8 @@
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr"/>
+      <c r="D15" s="14" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -718,6 +772,8 @@
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr"/>
+      <c r="E16" s="9" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="9" t="n">
@@ -729,6 +785,8 @@
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -740,6 +798,8 @@
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr"/>
+      <c r="D18" s="14" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -751,6 +811,8 @@
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr"/>
+      <c r="D19" s="14" t="inlineStr"/>
+      <c r="E19" s="9" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -762,6 +824,8 @@
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr"/>
+      <c r="D20" s="14" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -773,6 +837,8 @@
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr"/>
+      <c r="D21" s="14" t="inlineStr"/>
+      <c r="E21" s="9" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -784,6 +850,8 @@
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr"/>
+      <c r="D22" s="14" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -795,6 +863,8 @@
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr"/>
+      <c r="D23" s="14" t="inlineStr"/>
+      <c r="E23" s="9" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="9" t="n">
@@ -806,6 +876,8 @@
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr"/>
+      <c r="D24" s="14" t="inlineStr"/>
+      <c r="E24" s="9" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -817,6 +889,12 @@
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr"/>
+      <c r="D25" s="14" t="inlineStr"/>
+      <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">
@@ -828,6 +906,8 @@
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr"/>
+      <c r="D26" s="14" t="inlineStr"/>
+      <c r="E26" s="9" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -839,6 +919,8 @@
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr"/>
+      <c r="D27" s="14" t="inlineStr"/>
+      <c r="E27" s="9" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -854,6 +936,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D28" s="14" t="inlineStr"/>
+      <c r="E28" s="9" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -865,6 +949,8 @@
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr"/>
+      <c r="D29" s="14" t="inlineStr"/>
+      <c r="E29" s="9" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -876,6 +962,8 @@
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr"/>
+      <c r="D30" s="14" t="inlineStr"/>
+      <c r="E30" s="9" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -887,6 +975,8 @@
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr"/>
+      <c r="D31" s="14" t="inlineStr"/>
+      <c r="E31" s="9" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -898,6 +988,8 @@
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr"/>
+      <c r="D32" s="14" t="inlineStr"/>
+      <c r="E32" s="9" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">
@@ -909,6 +1001,8 @@
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr"/>
+      <c r="D33" s="14" t="inlineStr"/>
+      <c r="E33" s="9" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -920,6 +1014,8 @@
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr"/>
+      <c r="D34" s="14" t="inlineStr"/>
+      <c r="E34" s="9" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -935,6 +1031,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D35" s="14" t="inlineStr"/>
+      <c r="E35" s="9" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -946,6 +1044,8 @@
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr"/>
+      <c r="D36" s="14" t="inlineStr"/>
+      <c r="E36" s="9" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">
@@ -957,6 +1057,8 @@
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr"/>
+      <c r="D37" s="14" t="inlineStr"/>
+      <c r="E37" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
@@ -573,6 +576,11 @@
           <t>Tugas 3</t>
         </is>
       </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -592,6 +600,11 @@
           <t>BINDO6</t>
         </is>
       </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>PAI10</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="9" t="n">
@@ -605,6 +618,7 @@
       <c r="C3" s="9" t="inlineStr"/>
       <c r="D3" s="14" t="inlineStr"/>
       <c r="E3" s="9" t="inlineStr"/>
+      <c r="F3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -618,6 +632,11 @@
       <c r="C4" s="9" t="inlineStr"/>
       <c r="D4" s="14" t="inlineStr"/>
       <c r="E4" s="9" t="inlineStr"/>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -631,6 +650,11 @@
       <c r="C5" s="9" t="inlineStr"/>
       <c r="D5" s="14" t="inlineStr"/>
       <c r="E5" s="9" t="inlineStr"/>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -644,6 +668,7 @@
       <c r="C6" s="9" t="inlineStr"/>
       <c r="D6" s="14" t="inlineStr"/>
       <c r="E6" s="9" t="inlineStr"/>
+      <c r="F6" s="14" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -657,6 +682,11 @@
       <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="14" t="inlineStr"/>
       <c r="E7" s="9" t="inlineStr"/>
+      <c r="F7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -670,6 +700,7 @@
       <c r="C8" s="9" t="inlineStr"/>
       <c r="D8" s="14" t="inlineStr"/>
       <c r="E8" s="9" t="inlineStr"/>
+      <c r="F8" s="14" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="9" t="n">
@@ -683,6 +714,11 @@
       <c r="C9" s="9" t="inlineStr"/>
       <c r="D9" s="14" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr"/>
+      <c r="F9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -696,6 +732,7 @@
       <c r="C10" s="9" t="inlineStr"/>
       <c r="D10" s="14" t="inlineStr"/>
       <c r="E10" s="9" t="inlineStr"/>
+      <c r="F10" s="14" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="9" t="n">
@@ -709,6 +746,11 @@
       <c r="C11" s="9" t="inlineStr"/>
       <c r="D11" s="14" t="inlineStr"/>
       <c r="E11" s="9" t="inlineStr"/>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -722,6 +764,7 @@
       <c r="C12" s="9" t="inlineStr"/>
       <c r="D12" s="14" t="inlineStr"/>
       <c r="E12" s="9" t="inlineStr"/>
+      <c r="F12" s="14" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="n">
@@ -735,6 +778,11 @@
       <c r="C13" s="9" t="inlineStr"/>
       <c r="D13" s="14" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr"/>
+      <c r="F13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -748,6 +796,11 @@
       <c r="C14" s="9" t="inlineStr"/>
       <c r="D14" s="14" t="inlineStr"/>
       <c r="E14" s="9" t="inlineStr"/>
+      <c r="F14" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -761,6 +814,7 @@
       <c r="C15" s="9" t="inlineStr"/>
       <c r="D15" s="14" t="inlineStr"/>
       <c r="E15" s="9" t="inlineStr"/>
+      <c r="F15" s="14" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -774,6 +828,11 @@
       <c r="C16" s="9" t="inlineStr"/>
       <c r="D16" s="14" t="inlineStr"/>
       <c r="E16" s="9" t="inlineStr"/>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="9" t="n">
@@ -787,6 +846,7 @@
       <c r="C17" s="9" t="inlineStr"/>
       <c r="D17" s="14" t="inlineStr"/>
       <c r="E17" s="9" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -800,6 +860,11 @@
       <c r="C18" s="9" t="inlineStr"/>
       <c r="D18" s="14" t="inlineStr"/>
       <c r="E18" s="9" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -813,6 +878,7 @@
       <c r="C19" s="9" t="inlineStr"/>
       <c r="D19" s="14" t="inlineStr"/>
       <c r="E19" s="9" t="inlineStr"/>
+      <c r="F19" s="14" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -825,7 +891,12 @@
       </c>
       <c r="C20" s="9" t="inlineStr"/>
       <c r="D20" s="14" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr"/>
+      <c r="E20" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="14" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -839,6 +910,7 @@
       <c r="C21" s="9" t="inlineStr"/>
       <c r="D21" s="14" t="inlineStr"/>
       <c r="E21" s="9" t="inlineStr"/>
+      <c r="F21" s="14" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -852,6 +924,11 @@
       <c r="C22" s="9" t="inlineStr"/>
       <c r="D22" s="14" t="inlineStr"/>
       <c r="E22" s="9" t="inlineStr"/>
+      <c r="F22" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -865,6 +942,7 @@
       <c r="C23" s="9" t="inlineStr"/>
       <c r="D23" s="14" t="inlineStr"/>
       <c r="E23" s="9" t="inlineStr"/>
+      <c r="F23" s="14" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="9" t="n">
@@ -878,6 +956,7 @@
       <c r="C24" s="9" t="inlineStr"/>
       <c r="D24" s="14" t="inlineStr"/>
       <c r="E24" s="9" t="inlineStr"/>
+      <c r="F24" s="14" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -888,9 +967,18 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr"/>
+      <c r="C25" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D25" s="14" t="inlineStr"/>
       <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -908,6 +996,11 @@
       <c r="C26" s="9" t="inlineStr"/>
       <c r="D26" s="14" t="inlineStr"/>
       <c r="E26" s="9" t="inlineStr"/>
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -921,6 +1014,7 @@
       <c r="C27" s="9" t="inlineStr"/>
       <c r="D27" s="14" t="inlineStr"/>
       <c r="E27" s="9" t="inlineStr"/>
+      <c r="F27" s="14" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -938,6 +1032,11 @@
       </c>
       <c r="D28" s="14" t="inlineStr"/>
       <c r="E28" s="9" t="inlineStr"/>
+      <c r="F28" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -951,6 +1050,7 @@
       <c r="C29" s="9" t="inlineStr"/>
       <c r="D29" s="14" t="inlineStr"/>
       <c r="E29" s="9" t="inlineStr"/>
+      <c r="F29" s="14" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -964,6 +1064,7 @@
       <c r="C30" s="9" t="inlineStr"/>
       <c r="D30" s="14" t="inlineStr"/>
       <c r="E30" s="9" t="inlineStr"/>
+      <c r="F30" s="14" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -974,9 +1075,18 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr"/>
+      <c r="C31" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D31" s="14" t="inlineStr"/>
       <c r="E31" s="9" t="inlineStr"/>
+      <c r="F31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -990,6 +1100,7 @@
       <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="14" t="inlineStr"/>
       <c r="E32" s="9" t="inlineStr"/>
+      <c r="F32" s="14" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">
@@ -1003,6 +1114,11 @@
       <c r="C33" s="9" t="inlineStr"/>
       <c r="D33" s="14" t="inlineStr"/>
       <c r="E33" s="9" t="inlineStr"/>
+      <c r="F33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -1016,6 +1132,7 @@
       <c r="C34" s="9" t="inlineStr"/>
       <c r="D34" s="14" t="inlineStr"/>
       <c r="E34" s="9" t="inlineStr"/>
+      <c r="F34" s="14" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -1033,6 +1150,11 @@
       </c>
       <c r="D35" s="14" t="inlineStr"/>
       <c r="E35" s="9" t="inlineStr"/>
+      <c r="F35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -1046,6 +1168,11 @@
       <c r="C36" s="9" t="inlineStr"/>
       <c r="D36" s="14" t="inlineStr"/>
       <c r="E36" s="9" t="inlineStr"/>
+      <c r="F36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">
@@ -1059,6 +1186,11 @@
       <c r="C37" s="9" t="inlineStr"/>
       <c r="D37" s="14" t="inlineStr"/>
       <c r="E37" s="9" t="inlineStr"/>
+      <c r="F37" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -793,7 +793,11 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr"/>
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D14" s="14" t="inlineStr"/>
       <c r="E14" s="9" t="inlineStr"/>
       <c r="F14" s="14" t="inlineStr">
@@ -857,7 +861,11 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr"/>
+      <c r="C18" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D18" s="14" t="inlineStr"/>
       <c r="E18" s="9" t="inlineStr"/>
       <c r="F18" s="15" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -538,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
@@ -581,6 +581,16 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 6</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -605,6 +615,16 @@
           <t>PAI10</t>
         </is>
       </c>
+      <c r="G2" s="12" t="inlineStr">
+        <is>
+          <t>PKK6</t>
+        </is>
+      </c>
+      <c r="H2" s="12" t="inlineStr">
+        <is>
+          <t>PWPB5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="9" t="n">
@@ -619,6 +639,8 @@
       <c r="D3" s="14" t="inlineStr"/>
       <c r="E3" s="9" t="inlineStr"/>
       <c r="F3" s="14" t="inlineStr"/>
+      <c r="G3" s="9" t="inlineStr"/>
+      <c r="H3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -637,6 +659,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G4" s="9" t="inlineStr"/>
+      <c r="H4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -655,6 +679,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G5" s="9" t="inlineStr"/>
+      <c r="H5" s="14" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -669,6 +695,8 @@
       <c r="D6" s="14" t="inlineStr"/>
       <c r="E6" s="9" t="inlineStr"/>
       <c r="F6" s="14" t="inlineStr"/>
+      <c r="G6" s="9" t="inlineStr"/>
+      <c r="H6" s="14" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -687,6 +715,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G7" s="9" t="inlineStr"/>
+      <c r="H7" s="14" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -701,6 +731,8 @@
       <c r="D8" s="14" t="inlineStr"/>
       <c r="E8" s="9" t="inlineStr"/>
       <c r="F8" s="14" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr"/>
+      <c r="H8" s="14" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="9" t="n">
@@ -719,6 +751,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G9" s="9" t="inlineStr"/>
+      <c r="H9" s="14" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -733,6 +767,8 @@
       <c r="D10" s="14" t="inlineStr"/>
       <c r="E10" s="9" t="inlineStr"/>
       <c r="F10" s="14" t="inlineStr"/>
+      <c r="G10" s="9" t="inlineStr"/>
+      <c r="H10" s="14" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="9" t="n">
@@ -751,6 +787,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G11" s="9" t="inlineStr"/>
+      <c r="H11" s="14" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -765,6 +803,8 @@
       <c r="D12" s="14" t="inlineStr"/>
       <c r="E12" s="9" t="inlineStr"/>
       <c r="F12" s="14" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr"/>
+      <c r="H12" s="14" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="n">
@@ -783,6 +823,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G13" s="9" t="inlineStr"/>
+      <c r="H13" s="14" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -805,6 +847,8 @@
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="G14" s="9" t="inlineStr"/>
+      <c r="H14" s="14" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -819,6 +863,8 @@
       <c r="D15" s="14" t="inlineStr"/>
       <c r="E15" s="9" t="inlineStr"/>
       <c r="F15" s="14" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr"/>
+      <c r="H15" s="14" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -837,6 +883,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G16" s="9" t="inlineStr"/>
+      <c r="H16" s="14" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="9" t="n">
@@ -851,6 +899,8 @@
       <c r="D17" s="14" t="inlineStr"/>
       <c r="E17" s="9" t="inlineStr"/>
       <c r="F17" s="14" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
+      <c r="H17" s="14" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -873,6 +923,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G18" s="9" t="inlineStr"/>
+      <c r="H18" s="14" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -883,10 +935,16 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="9" t="inlineStr"/>
+      <c r="C19" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D19" s="14" t="inlineStr"/>
       <c r="E19" s="9" t="inlineStr"/>
       <c r="F19" s="14" t="inlineStr"/>
+      <c r="G19" s="9" t="inlineStr"/>
+      <c r="H19" s="14" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -905,6 +963,8 @@
         </is>
       </c>
       <c r="F20" s="14" t="inlineStr"/>
+      <c r="G20" s="9" t="inlineStr"/>
+      <c r="H20" s="14" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -919,6 +979,8 @@
       <c r="D21" s="14" t="inlineStr"/>
       <c r="E21" s="9" t="inlineStr"/>
       <c r="F21" s="14" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr"/>
+      <c r="H21" s="14" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -937,6 +999,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G22" s="9" t="inlineStr"/>
+      <c r="H22" s="14" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -951,6 +1015,8 @@
       <c r="D23" s="14" t="inlineStr"/>
       <c r="E23" s="9" t="inlineStr"/>
       <c r="F23" s="14" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
+      <c r="H23" s="14" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="9" t="n">
@@ -965,6 +1031,8 @@
       <c r="D24" s="14" t="inlineStr"/>
       <c r="E24" s="9" t="inlineStr"/>
       <c r="F24" s="14" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr"/>
+      <c r="H24" s="14" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -991,6 +1059,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G25" s="9" t="inlineStr"/>
+      <c r="H25" s="14" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">
@@ -1009,6 +1079,8 @@
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="G26" s="9" t="inlineStr"/>
+      <c r="H26" s="14" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -1023,6 +1095,8 @@
       <c r="D27" s="14" t="inlineStr"/>
       <c r="E27" s="9" t="inlineStr"/>
       <c r="F27" s="14" t="inlineStr"/>
+      <c r="G27" s="9" t="inlineStr"/>
+      <c r="H27" s="14" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -1045,6 +1119,8 @@
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="G28" s="9" t="inlineStr"/>
+      <c r="H28" s="14" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -1059,6 +1135,8 @@
       <c r="D29" s="14" t="inlineStr"/>
       <c r="E29" s="9" t="inlineStr"/>
       <c r="F29" s="14" t="inlineStr"/>
+      <c r="G29" s="9" t="inlineStr"/>
+      <c r="H29" s="14" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -1073,6 +1151,8 @@
       <c r="D30" s="14" t="inlineStr"/>
       <c r="E30" s="9" t="inlineStr"/>
       <c r="F30" s="14" t="inlineStr"/>
+      <c r="G30" s="9" t="inlineStr"/>
+      <c r="H30" s="14" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -1095,6 +1175,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G31" s="9" t="inlineStr"/>
+      <c r="H31" s="14" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -1109,6 +1191,8 @@
       <c r="D32" s="14" t="inlineStr"/>
       <c r="E32" s="9" t="inlineStr"/>
       <c r="F32" s="14" t="inlineStr"/>
+      <c r="G32" s="9" t="inlineStr"/>
+      <c r="H32" s="14" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">
@@ -1127,6 +1211,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G33" s="9" t="inlineStr"/>
+      <c r="H33" s="14" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -1141,6 +1227,8 @@
       <c r="D34" s="14" t="inlineStr"/>
       <c r="E34" s="9" t="inlineStr"/>
       <c r="F34" s="14" t="inlineStr"/>
+      <c r="G34" s="9" t="inlineStr"/>
+      <c r="H34" s="14" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -1163,6 +1251,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G35" s="9" t="inlineStr"/>
+      <c r="H35" s="14" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -1181,6 +1271,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G36" s="9" t="inlineStr"/>
+      <c r="H36" s="14" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">
@@ -1199,6 +1291,8 @@
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="G37" s="9" t="inlineStr"/>
+      <c r="H37" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -692,7 +692,11 @@
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr"/>
-      <c r="D6" s="14" t="inlineStr"/>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E6" s="9" t="inlineStr"/>
       <c r="F6" s="14" t="inlineStr"/>
       <c r="G6" s="9" t="inlineStr"/>
@@ -815,9 +819,21 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr"/>
-      <c r="D13" s="14" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr"/>
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F13" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -860,7 +876,11 @@
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr"/>
-      <c r="D15" s="14" t="inlineStr"/>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E15" s="9" t="inlineStr"/>
       <c r="F15" s="14" t="inlineStr"/>
       <c r="G15" s="9" t="inlineStr"/>
@@ -1072,7 +1092,11 @@
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr"/>
-      <c r="D26" s="14" t="inlineStr"/>
+      <c r="D26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E26" s="9" t="inlineStr"/>
       <c r="F26" s="14" t="inlineStr">
         <is>
@@ -1244,7 +1268,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D35" s="14" t="inlineStr"/>
+      <c r="D35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E35" s="9" t="inlineStr"/>
       <c r="F35" s="15" t="inlineStr">
         <is>
@@ -1284,7 +1312,11 @@
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr"/>
-      <c r="D37" s="14" t="inlineStr"/>
+      <c r="D37" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E37" s="9" t="inlineStr"/>
       <c r="F37" s="14" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -711,9 +711,17 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr"/>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="14" t="inlineStr"/>
-      <c r="E7" s="9" t="inlineStr"/>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -783,7 +791,11 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr"/>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D11" s="14" t="inlineStr"/>
       <c r="E11" s="9" t="inlineStr"/>
       <c r="F11" s="15" t="inlineStr">
@@ -1047,7 +1059,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr"/>
+      <c r="C24" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D24" s="14" t="inlineStr"/>
       <c r="E24" s="9" t="inlineStr"/>
       <c r="F24" s="14" t="inlineStr"/>
@@ -1193,7 +1209,11 @@
         </is>
       </c>
       <c r="D31" s="14" t="inlineStr"/>
-      <c r="E31" s="9" t="inlineStr"/>
+      <c r="E31" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F31" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -640,7 +640,11 @@
       <c r="E3" s="9" t="inlineStr"/>
       <c r="F3" s="14" t="inlineStr"/>
       <c r="G3" s="9" t="inlineStr"/>
-      <c r="H3" s="14" t="inlineStr"/>
+      <c r="H3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -680,7 +684,11 @@
         </is>
       </c>
       <c r="G5" s="9" t="inlineStr"/>
-      <c r="H5" s="14" t="inlineStr"/>
+      <c r="H5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -764,7 +772,11 @@
         </is>
       </c>
       <c r="G9" s="9" t="inlineStr"/>
-      <c r="H9" s="14" t="inlineStr"/>
+      <c r="H9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -804,7 +816,11 @@
         </is>
       </c>
       <c r="G11" s="9" t="inlineStr"/>
-      <c r="H11" s="14" t="inlineStr"/>
+      <c r="H11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -852,7 +868,11 @@
         </is>
       </c>
       <c r="G13" s="9" t="inlineStr"/>
-      <c r="H13" s="14" t="inlineStr"/>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -876,7 +896,11 @@
         </is>
       </c>
       <c r="G14" s="9" t="inlineStr"/>
-      <c r="H14" s="14" t="inlineStr"/>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -896,7 +920,11 @@
       <c r="E15" s="9" t="inlineStr"/>
       <c r="F15" s="14" t="inlineStr"/>
       <c r="G15" s="9" t="inlineStr"/>
-      <c r="H15" s="14" t="inlineStr"/>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -996,7 +1024,11 @@
       </c>
       <c r="F20" s="14" t="inlineStr"/>
       <c r="G20" s="9" t="inlineStr"/>
-      <c r="H20" s="14" t="inlineStr"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -1068,7 +1100,11 @@
       <c r="E24" s="9" t="inlineStr"/>
       <c r="F24" s="14" t="inlineStr"/>
       <c r="G24" s="9" t="inlineStr"/>
-      <c r="H24" s="14" t="inlineStr"/>
+      <c r="H24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -1096,7 +1132,11 @@
         </is>
       </c>
       <c r="G25" s="9" t="inlineStr"/>
-      <c r="H25" s="14" t="inlineStr"/>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">
@@ -1153,7 +1193,11 @@
         </is>
       </c>
       <c r="D28" s="14" t="inlineStr"/>
-      <c r="E28" s="9" t="inlineStr"/>
+      <c r="E28" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -1220,7 +1264,11 @@
         </is>
       </c>
       <c r="G31" s="9" t="inlineStr"/>
-      <c r="H31" s="14" t="inlineStr"/>
+      <c r="H31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -1300,7 +1348,11 @@
         </is>
       </c>
       <c r="G35" s="9" t="inlineStr"/>
-      <c r="H35" s="14" t="inlineStr"/>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -635,9 +635,21 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr"/>
-      <c r="D3" s="14" t="inlineStr"/>
-      <c r="E3" s="9" t="inlineStr"/>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F3" s="14" t="inlineStr"/>
       <c r="G3" s="9" t="inlineStr"/>
       <c r="H3" s="15" t="inlineStr">
@@ -676,7 +688,11 @@
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr"/>
-      <c r="D5" s="14" t="inlineStr"/>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E5" s="9" t="inlineStr"/>
       <c r="F5" s="15" t="inlineStr">
         <is>
@@ -736,7 +752,11 @@
         </is>
       </c>
       <c r="G7" s="9" t="inlineStr"/>
-      <c r="H7" s="14" t="inlineStr"/>
+      <c r="H7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -917,7 +937,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E15" s="9" t="inlineStr"/>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F15" s="14" t="inlineStr"/>
       <c r="G15" s="9" t="inlineStr"/>
       <c r="H15" s="15" t="inlineStr">
@@ -960,7 +984,11 @@
       <c r="E17" s="9" t="inlineStr"/>
       <c r="F17" s="14" t="inlineStr"/>
       <c r="G17" s="9" t="inlineStr"/>
-      <c r="H17" s="14" t="inlineStr"/>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -984,7 +1012,11 @@
         </is>
       </c>
       <c r="G18" s="9" t="inlineStr"/>
-      <c r="H18" s="14" t="inlineStr"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -1004,7 +1036,11 @@
       <c r="E19" s="9" t="inlineStr"/>
       <c r="F19" s="14" t="inlineStr"/>
       <c r="G19" s="9" t="inlineStr"/>
-      <c r="H19" s="14" t="inlineStr"/>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -1040,8 +1076,16 @@
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr"/>
-      <c r="D21" s="14" t="inlineStr"/>
-      <c r="E21" s="9" t="inlineStr"/>
+      <c r="D21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F21" s="14" t="inlineStr"/>
       <c r="G21" s="9" t="inlineStr"/>
       <c r="H21" s="14" t="inlineStr"/>
@@ -1076,7 +1120,11 @@
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr"/>
-      <c r="D23" s="14" t="inlineStr"/>
+      <c r="D23" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E23" s="9" t="inlineStr"/>
       <c r="F23" s="14" t="inlineStr"/>
       <c r="G23" s="9" t="inlineStr"/>
@@ -1160,7 +1208,11 @@
         </is>
       </c>
       <c r="G26" s="9" t="inlineStr"/>
-      <c r="H26" s="14" t="inlineStr"/>
+      <c r="H26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -1192,7 +1244,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D28" s="14" t="inlineStr"/>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E28" s="13" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1372,7 +1428,11 @@
         </is>
       </c>
       <c r="G36" s="9" t="inlineStr"/>
-      <c r="H36" s="14" t="inlineStr"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -667,7 +667,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr"/>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D4" s="14" t="inlineStr"/>
       <c r="E4" s="9" t="inlineStr"/>
       <c r="F4" s="15" t="inlineStr">
@@ -676,7 +680,11 @@
         </is>
       </c>
       <c r="G4" s="9" t="inlineStr"/>
-      <c r="H4" s="14" t="inlineStr"/>
+      <c r="H4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -687,7 +695,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr"/>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -909,7 +921,11 @@
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr"/>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F14" s="14" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -1075,7 +1091,11 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="9" t="inlineStr"/>
+      <c r="C21" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1195,7 +1215,11 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr"/>
+      <c r="C26" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1351,7 +1375,11 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr"/>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D33" s="14" t="inlineStr"/>
       <c r="E33" s="9" t="inlineStr"/>
       <c r="F33" s="15" t="inlineStr">
@@ -1360,7 +1388,11 @@
         </is>
       </c>
       <c r="G33" s="9" t="inlineStr"/>
-      <c r="H33" s="14" t="inlineStr"/>
+      <c r="H33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -1456,7 +1488,11 @@
         </is>
       </c>
       <c r="G37" s="9" t="inlineStr"/>
-      <c r="H37" s="14" t="inlineStr"/>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -795,9 +795,21 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr"/>
-      <c r="D9" s="14" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr"/>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -820,7 +832,11 @@
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr"/>
-      <c r="D10" s="14" t="inlineStr"/>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E10" s="9" t="inlineStr"/>
       <c r="F10" s="14" t="inlineStr"/>
       <c r="G10" s="9" t="inlineStr"/>
@@ -840,8 +856,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr"/>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F11" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -920,7 +944,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr"/>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E14" s="13" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1164,8 +1192,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D24" s="14" t="inlineStr"/>
-      <c r="E24" s="9" t="inlineStr"/>
+      <c r="D24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E24" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F24" s="14" t="inlineStr"/>
       <c r="G24" s="9" t="inlineStr"/>
       <c r="H24" s="15" t="inlineStr">
@@ -1380,7 +1416,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D33" s="14" t="inlineStr"/>
+      <c r="D33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E33" s="9" t="inlineStr"/>
       <c r="F33" s="15" t="inlineStr">
         <is>
@@ -1404,8 +1444,16 @@
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr"/>
-      <c r="D34" s="14" t="inlineStr"/>
-      <c r="E34" s="9" t="inlineStr"/>
+      <c r="D34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F34" s="14" t="inlineStr"/>
       <c r="G34" s="9" t="inlineStr"/>
       <c r="H34" s="14" t="inlineStr"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1421,7 +1421,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E33" s="9" t="inlineStr"/>
+      <c r="E33" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F33" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -672,7 +672,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr"/>
+      <c r="D4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E4" s="9" t="inlineStr"/>
       <c r="F4" s="15" t="inlineStr">
         <is>
@@ -752,7 +756,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr"/>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E7" s="13" t="inlineStr">
         <is>
           <t>ü</t>
@@ -888,7 +896,11 @@
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr"/>
-      <c r="D12" s="14" t="inlineStr"/>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E12" s="9" t="inlineStr"/>
       <c r="F12" s="14" t="inlineStr"/>
       <c r="G12" s="9" t="inlineStr"/>
@@ -1004,7 +1016,11 @@
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr"/>
-      <c r="D16" s="14" t="inlineStr"/>
+      <c r="D16" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E16" s="9" t="inlineStr"/>
       <c r="F16" s="15" t="inlineStr">
         <is>
@@ -1048,7 +1064,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D18" s="14" t="inlineStr"/>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E18" s="9" t="inlineStr"/>
       <c r="F18" s="15" t="inlineStr">
         <is>
@@ -1076,7 +1096,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="14" t="inlineStr"/>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="9" t="inlineStr"/>
       <c r="F19" s="14" t="inlineStr"/>
       <c r="G19" s="9" t="inlineStr"/>
@@ -1096,7 +1120,11 @@
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr"/>
-      <c r="D20" s="14" t="inlineStr"/>
+      <c r="D20" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E20" s="13" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1224,7 +1252,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D25" s="14" t="inlineStr"/>
+      <c r="D25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E25" s="13" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1283,7 +1315,11 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr"/>
+      <c r="C27" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D27" s="14" t="inlineStr"/>
       <c r="E27" s="9" t="inlineStr"/>
       <c r="F27" s="14" t="inlineStr"/>
@@ -1368,7 +1404,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D31" s="14" t="inlineStr"/>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E31" s="13" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1396,7 +1436,11 @@
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr"/>
-      <c r="D32" s="14" t="inlineStr"/>
+      <c r="D32" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E32" s="9" t="inlineStr"/>
       <c r="F32" s="14" t="inlineStr"/>
       <c r="G32" s="9" t="inlineStr"/>
@@ -1503,9 +1547,21 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr"/>
-      <c r="D36" s="14" t="inlineStr"/>
-      <c r="E36" s="9" t="inlineStr"/>
+      <c r="C36" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F36" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1525,7 +1525,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E35" s="9" t="inlineStr"/>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F35" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -709,7 +709,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr"/>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1535,7 +1539,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G35" s="9" t="inlineStr"/>
+      <c r="G35" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H35" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -677,7 +677,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr"/>
+      <c r="E4" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F4" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1073,7 +1077,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E18" s="9" t="inlineStr"/>
+      <c r="E18" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F18" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1105,7 +1113,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E19" s="9" t="inlineStr"/>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F19" s="14" t="inlineStr"/>
       <c r="G19" s="9" t="inlineStr"/>
       <c r="H19" s="15" t="inlineStr">
@@ -1168,7 +1180,11 @@
       </c>
       <c r="F21" s="14" t="inlineStr"/>
       <c r="G21" s="9" t="inlineStr"/>
-      <c r="H21" s="14" t="inlineStr"/>
+      <c r="H21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,12 +52,17 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -152,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +172,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -189,10 +200,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,1090 +552,1092 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B8" sqref="A1:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" min="4" max="5"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Tugas 5</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>Tugas 6</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="n"/>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>MAT10</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>BINDO5</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>BINDO6</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" s="14" t="inlineStr">
         <is>
           <t>PAI10</t>
         </is>
       </c>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>PKK6</t>
         </is>
       </c>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="H2" s="14" t="inlineStr">
         <is>
           <t>PWPB5</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D3" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E3" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr"/>
-      <c r="G3" s="9" t="inlineStr"/>
-      <c r="H3" s="15" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F3" s="17" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+      <c r="H3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E4" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F4" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="inlineStr"/>
-      <c r="H4" s="15" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr"/>
+      <c r="H4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr"/>
-      <c r="H5" s="15" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="inlineStr"/>
+      <c r="H5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr"/>
-      <c r="D6" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr"/>
-      <c r="F6" s="14" t="inlineStr"/>
-      <c r="G6" s="9" t="inlineStr"/>
-      <c r="H6" s="14" t="inlineStr"/>
+      <c r="C6" s="11" t="inlineStr"/>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr"/>
+      <c r="F6" s="17" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+      <c r="H6" s="17" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D7" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E7" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F7" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="inlineStr"/>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr"/>
+      <c r="H7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr"/>
-      <c r="D8" s="14" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr"/>
-      <c r="F8" s="14" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr"/>
-      <c r="H8" s="14" t="inlineStr"/>
+      <c r="C8" s="11" t="inlineStr"/>
+      <c r="D8" s="17" t="inlineStr"/>
+      <c r="E8" s="11" t="inlineStr"/>
+      <c r="F8" s="17" t="inlineStr"/>
+      <c r="G8" s="11" t="inlineStr"/>
+      <c r="H8" s="17" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D9" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E9" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F9" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="inlineStr"/>
-      <c r="H9" s="15" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="inlineStr"/>
+      <c r="H9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr"/>
-      <c r="D10" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr"/>
-      <c r="F10" s="14" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr"/>
-      <c r="H10" s="14" t="inlineStr"/>
+      <c r="C10" s="11" t="inlineStr"/>
+      <c r="D10" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr"/>
+      <c r="F10" s="17" t="inlineStr"/>
+      <c r="G10" s="11" t="inlineStr"/>
+      <c r="H10" s="17" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D11" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E11" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F11" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="inlineStr"/>
-      <c r="H11" s="15" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G11" s="11" t="inlineStr"/>
+      <c r="H11" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr"/>
-      <c r="D12" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr"/>
-      <c r="F12" s="14" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr"/>
-      <c r="H12" s="14" t="inlineStr"/>
+      <c r="C12" s="11" t="inlineStr"/>
+      <c r="D12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr"/>
+      <c r="F12" s="17" t="inlineStr"/>
+      <c r="G12" s="11" t="inlineStr"/>
+      <c r="H12" s="17" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D13" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E13" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F13" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G13" s="9" t="inlineStr"/>
-      <c r="H13" s="15" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="inlineStr"/>
+      <c r="H13" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E14" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F14" s="14" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G14" s="9" t="inlineStr"/>
-      <c r="H14" s="15" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr"/>
+      <c r="H14" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr"/>
-      <c r="D15" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E15" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F15" s="14" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr"/>
-      <c r="H15" s="15" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr"/>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr"/>
+      <c r="H15" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="9" t="inlineStr"/>
-      <c r="D16" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr"/>
-      <c r="F16" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr"/>
-      <c r="H16" s="14" t="inlineStr"/>
+      <c r="C16" s="11" t="inlineStr"/>
+      <c r="D16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr"/>
+      <c r="F16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="inlineStr"/>
+      <c r="H16" s="17" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="9" t="inlineStr"/>
-      <c r="D17" s="14" t="inlineStr"/>
-      <c r="E17" s="9" t="inlineStr"/>
-      <c r="F17" s="14" t="inlineStr"/>
-      <c r="G17" s="9" t="inlineStr"/>
-      <c r="H17" s="15" t="inlineStr">
+      <c r="C17" s="11" t="inlineStr"/>
+      <c r="D17" s="17" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
+      <c r="F17" s="17" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr"/>
+      <c r="H17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F18" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G18" s="9" t="inlineStr"/>
-      <c r="H18" s="15" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="inlineStr"/>
+      <c r="H18" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D19" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E19" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="14" t="inlineStr"/>
-      <c r="G19" s="9" t="inlineStr"/>
-      <c r="H19" s="15" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="17" t="inlineStr"/>
+      <c r="G19" s="11" t="inlineStr"/>
+      <c r="H19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr"/>
-      <c r="D20" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E20" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F20" s="14" t="inlineStr"/>
-      <c r="G20" s="9" t="inlineStr"/>
-      <c r="H20" s="15" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="17" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr"/>
+      <c r="H20" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E21" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F21" s="14" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr"/>
-      <c r="H21" s="15" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F21" s="17" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+      <c r="H21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr"/>
-      <c r="D22" s="14" t="inlineStr"/>
-      <c r="E22" s="9" t="inlineStr"/>
-      <c r="F22" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G22" s="9" t="inlineStr"/>
-      <c r="H22" s="14" t="inlineStr"/>
+      <c r="C22" s="11" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr"/>
+      <c r="H22" s="17" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="9" t="inlineStr"/>
-      <c r="D23" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr"/>
-      <c r="F23" s="14" t="inlineStr"/>
-      <c r="G23" s="9" t="inlineStr"/>
-      <c r="H23" s="14" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr"/>
+      <c r="D23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="17" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+      <c r="H23" s="17" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D24" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E24" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F24" s="14" t="inlineStr"/>
-      <c r="G24" s="9" t="inlineStr"/>
-      <c r="H24" s="15" t="inlineStr">
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F24" s="17" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+      <c r="H24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F25" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G25" s="9" t="inlineStr"/>
-      <c r="H25" s="15" t="inlineStr">
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr"/>
+      <c r="H25" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr"/>
-      <c r="F26" s="14" t="inlineStr">
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr"/>
+      <c r="F26" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G26" s="9" t="inlineStr"/>
-      <c r="H26" s="15" t="inlineStr">
+      <c r="G26" s="11" t="inlineStr"/>
+      <c r="H26" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="14" t="inlineStr"/>
-      <c r="E27" s="9" t="inlineStr"/>
-      <c r="F27" s="14" t="inlineStr"/>
-      <c r="G27" s="9" t="inlineStr"/>
-      <c r="H27" s="14" t="inlineStr"/>
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="17" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
+      <c r="F27" s="17" t="inlineStr"/>
+      <c r="G27" s="11" t="inlineStr"/>
+      <c r="H27" s="17" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E28" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F28" s="14" t="inlineStr">
+      <c r="C28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F28" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G28" s="9" t="inlineStr"/>
-      <c r="H28" s="14" t="inlineStr"/>
+      <c r="G28" s="11" t="inlineStr"/>
+      <c r="H28" s="17" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C29" s="9" t="inlineStr"/>
-      <c r="D29" s="14" t="inlineStr"/>
-      <c r="E29" s="9" t="inlineStr"/>
-      <c r="F29" s="14" t="inlineStr"/>
-      <c r="G29" s="9" t="inlineStr"/>
-      <c r="H29" s="14" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr"/>
+      <c r="D29" s="17" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
+      <c r="F29" s="17" t="inlineStr"/>
+      <c r="G29" s="11" t="inlineStr"/>
+      <c r="H29" s="17" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="9" t="inlineStr"/>
-      <c r="D30" s="14" t="inlineStr"/>
-      <c r="E30" s="9" t="inlineStr"/>
-      <c r="F30" s="14" t="inlineStr"/>
-      <c r="G30" s="9" t="inlineStr"/>
-      <c r="H30" s="14" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr"/>
+      <c r="D30" s="17" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
+      <c r="F30" s="17" t="inlineStr"/>
+      <c r="G30" s="11" t="inlineStr"/>
+      <c r="H30" s="17" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E31" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F31" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G31" s="9" t="inlineStr"/>
-      <c r="H31" s="15" t="inlineStr">
+      <c r="C31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="inlineStr"/>
+      <c r="H31" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="9" t="inlineStr"/>
-      <c r="D32" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr"/>
-      <c r="F32" s="14" t="inlineStr"/>
-      <c r="G32" s="9" t="inlineStr"/>
-      <c r="H32" s="14" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="17" t="inlineStr"/>
+      <c r="G32" s="11" t="inlineStr"/>
+      <c r="H32" s="17" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E33" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F33" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G33" s="9" t="inlineStr"/>
-      <c r="H33" s="15" t="inlineStr">
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G33" s="11" t="inlineStr"/>
+      <c r="H33" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr"/>
-      <c r="D34" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F34" s="14" t="inlineStr"/>
-      <c r="G34" s="9" t="inlineStr"/>
-      <c r="H34" s="14" t="inlineStr"/>
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="17" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+      <c r="H34" s="17" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E35" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G35" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H35" s="15" t="inlineStr">
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H35" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D36" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E36" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F36" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G36" s="9" t="inlineStr"/>
-      <c r="H36" s="15" t="inlineStr">
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr"/>
+      <c r="H36" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr"/>
-      <c r="D37" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E37" s="9" t="inlineStr"/>
-      <c r="F37" s="14" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr"/>
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr"/>
+      <c r="F37" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G37" s="9" t="inlineStr"/>
-      <c r="H37" s="15" t="inlineStr">
+      <c r="G37" s="11" t="inlineStr"/>
+      <c r="H37" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -900,7 +900,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G11" s="11" t="inlineStr"/>
+      <c r="G11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H11" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1389,7 +1393,11 @@
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr"/>
-      <c r="H28" s="17" t="inlineStr"/>
+      <c r="H28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1304,7 +1304,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G25" s="11" t="inlineStr"/>
+      <c r="G25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H25" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1549,7 +1549,11 @@
       </c>
       <c r="F34" s="17" t="inlineStr"/>
       <c r="G34" s="11" t="inlineStr"/>
-      <c r="H34" s="17" t="inlineStr"/>
+      <c r="H34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1334,7 +1334,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr"/>
+      <c r="E26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -664,7 +664,11 @@
         </is>
       </c>
       <c r="F3" s="17" t="inlineStr"/>
-      <c r="G3" s="11" t="inlineStr"/>
+      <c r="G3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -960,7 +964,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G13" s="11" t="inlineStr"/>
+      <c r="G13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H13" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -740,7 +740,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr"/>
+      <c r="G5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -796,7 +800,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr"/>
+      <c r="G7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -848,7 +856,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr"/>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1004,7 +1016,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G14" s="11" t="inlineStr"/>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H14" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1020,7 +1036,11 @@
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr"/>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D15" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1144,7 +1164,11 @@
         </is>
       </c>
       <c r="F19" s="17" t="inlineStr"/>
-      <c r="G19" s="11" t="inlineStr"/>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1276,7 +1300,11 @@
         </is>
       </c>
       <c r="F24" s="17" t="inlineStr"/>
-      <c r="G24" s="11" t="inlineStr"/>
+      <c r="G24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1352,7 +1380,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G26" s="11" t="inlineStr"/>
+      <c r="G26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H26" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1476,7 +1508,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G31" s="11" t="inlineStr"/>
+      <c r="G31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H31" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1636,7 +1672,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G36" s="11" t="inlineStr"/>
+      <c r="G36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H36" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1132,7 +1132,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G18" s="11" t="inlineStr"/>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H18" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1228,7 +1232,11 @@
         </is>
       </c>
       <c r="F21" s="17" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr"/>
+      <c r="G21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1409,7 +1417,11 @@
       <c r="E27" s="11" t="inlineStr"/>
       <c r="F27" s="17" t="inlineStr"/>
       <c r="G27" s="11" t="inlineStr"/>
-      <c r="H27" s="17" t="inlineStr"/>
+      <c r="H27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1580,7 +1580,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G33" s="11" t="inlineStr"/>
+      <c r="G33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H33" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1081,7 +1081,11 @@
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr"/>
-      <c r="H16" s="17" t="inlineStr"/>
+      <c r="H16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -1096,9 +1096,21 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="17" t="inlineStr"/>
-      <c r="E17" s="11" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F17" s="17" t="inlineStr"/>
       <c r="G17" s="11" t="inlineStr"/>
       <c r="H17" s="16" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-10 (27 September 2021 - 3 Oktober 2021).xlsx
@@ -704,7 +704,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr"/>
+      <c r="G4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -767,7 +771,11 @@
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr"/>
-      <c r="F6" s="17" t="inlineStr"/>
+      <c r="F6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G6" s="11" t="inlineStr"/>
       <c r="H6" s="17" t="inlineStr"/>
     </row>
